--- a/PartnerData/excel/농대 제휴업체.xlsx
+++ b/PartnerData/excel/농대 제휴업체.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B185F52-70B3-F648-A16C-54FB7005A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C253D4D7-C1DB-3342-A868-A982DF371746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>부산할매 수육국밥, 냉면</t>
   </si>
   <si>
-    <t>25,000원 이상 2,000원, 30,000원 이상 3,000원 할인</t>
-  </si>
-  <si>
     <t xml:space="preserve">2인 방문 시 음료 1캔 제공 </t>
   </si>
   <si>
@@ -135,323 +132,330 @@
     <t>현금 5% 할인, 음료 1병 서비스</t>
   </si>
   <si>
+    <t>5만원 현금 결제 시 10% 할인</t>
+  </si>
+  <si>
+    <t>방문 시 감자튀김 증정</t>
+  </si>
+  <si>
+    <t>5만원 이상 결제시 5% 할인, 소주 1병 서비스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">방문 시 음료 제공 </t>
+  </si>
+  <si>
+    <t>방문 시 현금 10% 할인</t>
+  </si>
+  <si>
+    <t>어로</t>
+  </si>
+  <si>
+    <t>치타하우스</t>
+  </si>
+  <si>
+    <t>모이세</t>
+  </si>
+  <si>
+    <t>오징어회포차</t>
+  </si>
+  <si>
+    <t>인생집</t>
+  </si>
+  <si>
+    <t>현금 결제 시 5% 할인</t>
+  </si>
+  <si>
+    <t>20% 할인 또는 사이드 안주 서비스</t>
+  </si>
+  <si>
+    <t>농대 한달 정산 후 매출 1위 학과 막걸리 한박스</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2인 이상 방문 시 사이드 메뉴 택 1 제공	</t>
+  </si>
+  <si>
+    <t>탐라포차</t>
+  </si>
+  <si>
+    <t>양파링</t>
+  </si>
+  <si>
+    <t>꾼노리</t>
+  </si>
+  <si>
+    <t>룸메이트</t>
+  </si>
+  <si>
+    <t>3만원 이상 결제 시 음료수 혹은 도시락 제공</t>
+  </si>
+  <si>
+    <t>3만원 이상 현금결제 시 10% 할인</t>
+  </si>
+  <si>
+    <t>음료수 2개 혹은 10만원 이상 화채 서비스</t>
+  </si>
+  <si>
+    <t>현금 결제 시 5만원 이상 소주 4,000원 적용</t>
+  </si>
+  <si>
+    <t>장미맨숀</t>
+  </si>
+  <si>
+    <t>청춘튀겨</t>
+  </si>
+  <si>
+    <t>5인 이상 감자튀김 제공</t>
+  </si>
+  <si>
+    <t>3만원 이상 결제 시 사이드 중 1개 제공</t>
+  </si>
+  <si>
+    <t>막툰</t>
+  </si>
+  <si>
+    <t>제이헤어</t>
+  </si>
+  <si>
+    <t>에이블 스튜디오</t>
+  </si>
+  <si>
+    <t>포인트 2배 적립</t>
+  </si>
+  <si>
+    <t>20만원 이하 10% 할인, 20만원 이상 20% 할인</t>
+  </si>
+  <si>
+    <t>증명촬영 혹은 이미지촬영 시 2,000원 할인</t>
+  </si>
+  <si>
+    <t>옥스</t>
+  </si>
+  <si>
+    <t>1:1 pt 회당 4만원, 회원권 3개월 16만원</t>
+  </si>
+  <si>
+    <t>0507-1467-1478</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로674번길 26</t>
+  </si>
+  <si>
+    <t>0507-1441-8933</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 사직대로82번길 14</t>
+  </si>
+  <si>
+    <t>043-260-2771</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로672번길 62</t>
+  </si>
+  <si>
+    <t>0507-1337-4418</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로674번길 38 1층</t>
+  </si>
+  <si>
+    <t>0507-1337-3364</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 내수동로102번길 54 1층 멘야마쯔리 충북대점</t>
+  </si>
+  <si>
+    <t>043-263-7083</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 사직대로 121 1층 그릭데이</t>
+  </si>
+  <si>
+    <t>043-260-5370</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로 669</t>
+  </si>
+  <si>
+    <t>043-271-7200</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 내수동로 43</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 사직대로89번길 16 1층 말리부나잇츠</t>
+  </si>
+  <si>
+    <t>02-2538-2957</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 충대로14번길 1 애여니의행복한쿠키</t>
+  </si>
+  <si>
+    <t>0507-1407-6061</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 성봉로 289 1층</t>
+  </si>
+  <si>
+    <t>010-7739-1004</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 내수동로42번길 19</t>
+  </si>
+  <si>
+    <t>043-277-2003</t>
+  </si>
+  <si>
+    <t>청송얼음막걸리</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 내수동로114번길 26</t>
+  </si>
+  <si>
+    <t>043-266-1346</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로672번길 48</t>
+  </si>
+  <si>
+    <t>043-276-6686</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 내수동로108번길 27 2층</t>
+  </si>
+  <si>
+    <t>0507-1317-6409</t>
+  </si>
+  <si>
+    <t>010-3485-2975</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 내수동로108번길 28 2F</t>
+  </si>
+  <si>
+    <t>043-272-1883</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 성봉로 299</t>
+  </si>
+  <si>
+    <t>043-267-4325</t>
+  </si>
+  <si>
+    <t>충북 청주시 내수동로114번길 42</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로674번길 26 1층</t>
+  </si>
+  <si>
+    <t>0507-1433-0121</t>
+  </si>
+  <si>
+    <t>010-6570-2254</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 내수동로108번길 18 2층, 3층</t>
+  </si>
+  <si>
+    <t>043-272-9292</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 충대로 7</t>
+  </si>
+  <si>
+    <t>0507-1337-8775</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 내수동로 41 1층</t>
+  </si>
+  <si>
+    <t>010-5912-8226</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로672번길 30 지하 1층</t>
+  </si>
+  <si>
+    <t>0507-1317-4786</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로704번길 63 1층</t>
+  </si>
+  <si>
+    <t>0507-1309-2523</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로674번길 22 1층</t>
+  </si>
+  <si>
+    <t>043-264-4330</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 내수동로108번길 33</t>
+  </si>
+  <si>
+    <t>0507-1302-0823</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로674번길 24</t>
+  </si>
+  <si>
+    <t>070-5111-7586</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 내수동로114번길 41 1층 장미맨숀</t>
+  </si>
+  <si>
+    <t>0507-1444-1022</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로672번길 34 3층</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로672번길 63 지하 1층</t>
+  </si>
+  <si>
+    <t>0507-1404-3183</t>
+  </si>
+  <si>
+    <t>0507-1410-8910</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 충대로 4 2층</t>
+  </si>
+  <si>
+    <t>0507-1440-7111</t>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로672번길 52 신이빌딩 지하 1층</t>
+  </si>
+  <si>
+    <t>충북 청주시 흥덕구 내수동로 46 2층</t>
+  </si>
+  <si>
+    <t>010-6589-4709</t>
+  </si>
+  <si>
+    <t>테이블 당 음료 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,000원 이상 2,000원 / 30,000원 이상 3,000원 할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>현금결제 시 5% 할인, 음료 1병 서비스</t>
-  </si>
-  <si>
-    <t>5만원 현금 결제 시 10% 할인</t>
-  </si>
-  <si>
-    <t>방문 시 감자튀김 증정</t>
-  </si>
-  <si>
-    <t>5만원 이상 결제시 5% 할인, 소주 1병 서비스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">방문 시 음료 제공 </t>
-  </si>
-  <si>
-    <t>방문 시 현금 10% 할인</t>
-  </si>
-  <si>
-    <t>어로</t>
-  </si>
-  <si>
-    <t>치타하우스</t>
-  </si>
-  <si>
-    <t>모이세</t>
-  </si>
-  <si>
-    <t>오징어회포차</t>
-  </si>
-  <si>
-    <t>인생집</t>
-  </si>
-  <si>
-    <t>현금 결제 시 5% 할인</t>
-  </si>
-  <si>
-    <t>20% 할인 또는 사이드 안주 서비스</t>
-  </si>
-  <si>
-    <t>농대 한달 정산 후 매출 1위 학과 막걸리 한박스</t>
-  </si>
-  <si>
-    <t>테이블 당 음료 서ㅂ스</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2인 이상 방문 시 사이드 메뉴 택 1 제공	</t>
-  </si>
-  <si>
-    <t>탐라포차</t>
-  </si>
-  <si>
-    <t>양파링</t>
-  </si>
-  <si>
-    <t>꾼노리</t>
-  </si>
-  <si>
-    <t>룸메이트</t>
-  </si>
-  <si>
-    <t>3만원 이상 결제 시 음료수 혹은 도시락 제공</t>
-  </si>
-  <si>
-    <t>3만원 이상 현금결제 시 10% 할인</t>
-  </si>
-  <si>
-    <t>음료수 2개 혹은 10만원 이상 화채 서비스</t>
-  </si>
-  <si>
-    <t>현금 결제 시 5만원 이상 소주 4,000원 적용</t>
-  </si>
-  <si>
-    <t>장미맨숀</t>
-  </si>
-  <si>
-    <t>청춘튀겨</t>
-  </si>
-  <si>
-    <t>5인 이상 감자튀김 제공</t>
-  </si>
-  <si>
-    <t>3만원 이상 결제 시 사이드 중 1개 제공</t>
-  </si>
-  <si>
-    <t>여가</t>
-  </si>
-  <si>
-    <t>막툰</t>
-  </si>
-  <si>
-    <t>제이헤어</t>
-  </si>
-  <si>
-    <t>에이블 스튜디오</t>
-  </si>
-  <si>
-    <t>포인트 2배 적립</t>
-  </si>
-  <si>
-    <t>20만원 이하 10% 할인, 20만원 이상 20% 할인</t>
-  </si>
-  <si>
-    <t>증명촬영 혹은 이미지촬영 시 2,000원 할인</t>
-  </si>
-  <si>
-    <t>옥스</t>
-  </si>
-  <si>
-    <t>1:1 pt 회당 4만원, 회원권 3개월 16만원</t>
-  </si>
-  <si>
-    <t>0507-1467-1478</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로674번길 26</t>
-  </si>
-  <si>
-    <t>0507-1441-8933</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 사직대로82번길 14</t>
-  </si>
-  <si>
-    <t>043-260-2771</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로672번길 62</t>
-  </si>
-  <si>
-    <t>0507-1337-4418</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로674번길 38 1층</t>
-  </si>
-  <si>
-    <t>0507-1337-3364</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 내수동로102번길 54 1층 멘야마쯔리 충북대점</t>
-  </si>
-  <si>
-    <t>043-263-7083</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 사직대로 121 1층 그릭데이</t>
-  </si>
-  <si>
-    <t>043-260-5370</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로 669</t>
-  </si>
-  <si>
-    <t>043-271-7200</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 내수동로 43</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 사직대로89번길 16 1층 말리부나잇츠</t>
-  </si>
-  <si>
-    <t>02-2538-2957</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 충대로14번길 1 애여니의행복한쿠키</t>
-  </si>
-  <si>
-    <t>0507-1407-6061</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 성봉로 289 1층</t>
-  </si>
-  <si>
-    <t>010-7739-1004</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 내수동로42번길 19</t>
-  </si>
-  <si>
-    <t>043-277-2003</t>
-  </si>
-  <si>
-    <t>청송얼음막걸리</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 내수동로114번길 26</t>
-  </si>
-  <si>
-    <t>043-266-1346</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로672번길 48</t>
-  </si>
-  <si>
-    <t>043-276-6686</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 내수동로108번길 27 2층</t>
-  </si>
-  <si>
-    <t>0507-1317-6409</t>
-  </si>
-  <si>
-    <t>010-3485-2975</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 내수동로108번길 28 2F</t>
-  </si>
-  <si>
-    <t>043-272-1883</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 성봉로 299</t>
-  </si>
-  <si>
-    <t>043-267-4325</t>
-  </si>
-  <si>
-    <t>충북 청주시 내수동로114번길 42</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로674번길 26 1층</t>
-  </si>
-  <si>
-    <t>0507-1433-0121</t>
-  </si>
-  <si>
-    <t>010-6570-2254</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 내수동로108번길 18 2층, 3층</t>
-  </si>
-  <si>
-    <t>043-272-9292</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 충대로 7</t>
-  </si>
-  <si>
-    <t>0507-1337-8775</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 내수동로 41 1층</t>
-  </si>
-  <si>
-    <t>010-5912-8226</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로672번길 30 지하 1층</t>
-  </si>
-  <si>
-    <t>0507-1317-4786</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로704번길 63 1층</t>
-  </si>
-  <si>
-    <t>0507-1309-2523</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로674번길 22 1층</t>
-  </si>
-  <si>
-    <t>043-264-4330</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 내수동로108번길 33</t>
-  </si>
-  <si>
-    <t>0507-1302-0823</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로674번길 24</t>
-  </si>
-  <si>
-    <t>070-5111-7586</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 내수동로114번길 41 1층 장미맨숀</t>
-  </si>
-  <si>
-    <t>0507-1444-1022</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로672번길 34 3층</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로672번길 63 지하 1층</t>
-  </si>
-  <si>
-    <t>0507-1404-3183</t>
-  </si>
-  <si>
-    <t>0507-1410-8910</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 충대로 4 2층</t>
-  </si>
-  <si>
-    <t>0507-1440-7111</t>
-  </si>
-  <si>
-    <t>충북 청주시 서원구 1순환로672번길 52 신이빌딩 지하 1층</t>
-  </si>
-  <si>
-    <t>충북 청주시 흥덕구 내수동로 46 2층</t>
-  </si>
-  <si>
-    <t>010-6589-4709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +486,13 @@
       <color rgb="FF000000"/>
       <name val="-apple-system"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -511,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,6 +530,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,15 +819,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="234" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="234" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -842,13 +856,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -859,13 +873,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16">
@@ -876,13 +890,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -893,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -910,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16">
@@ -927,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -944,456 +958,456 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
+        <v>93</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" t="s">
-        <v>51</v>
+        <v>113</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
         <v>131</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
         <v>134</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
         <v>69</v>
       </c>
-      <c r="E31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="E34" t="s">
         <v>135</v>
-      </c>
-      <c r="D32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
